--- a/04_Model_Saved/NN_full_v3_BO_test_0/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_0/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>394.8752746582031</v>
+        <v>220.8191680908203</v>
       </c>
       <c r="H2" t="n">
-        <v>100.6657485961914</v>
+        <v>50.23445129394531</v>
       </c>
       <c r="I2" t="n">
-        <v>531.7887573242188</v>
+        <v>687.4422607421875</v>
       </c>
       <c r="J2" t="n">
-        <v>322.1452941894531</v>
+        <v>95.12493133544922</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>436.1075134277344</v>
+        <v>244.2071380615234</v>
       </c>
       <c r="H3" t="n">
-        <v>101.7335739135742</v>
+        <v>54.09180068969727</v>
       </c>
       <c r="I3" t="n">
-        <v>569.89404296875</v>
+        <v>770.844970703125</v>
       </c>
       <c r="J3" t="n">
-        <v>295.02783203125</v>
+        <v>88.78175354003906</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>480.6404724121094</v>
+        <v>285.6131591796875</v>
       </c>
       <c r="H4" t="n">
-        <v>100.5367126464844</v>
+        <v>60.99767303466797</v>
       </c>
       <c r="I4" t="n">
-        <v>608.6572875976562</v>
+        <v>826.8572387695312</v>
       </c>
       <c r="J4" t="n">
-        <v>286.2422790527344</v>
+        <v>84.79158020019531</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>531.9439697265625</v>
+        <v>349.8923950195312</v>
       </c>
       <c r="H5" t="n">
-        <v>101.9113540649414</v>
+        <v>81.51287078857422</v>
       </c>
       <c r="I5" t="n">
-        <v>611.2184448242188</v>
+        <v>868.5240478515625</v>
       </c>
       <c r="J5" t="n">
-        <v>265.3276672363281</v>
+        <v>89.7022705078125</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>586.5933227539062</v>
+        <v>456.2643737792969</v>
       </c>
       <c r="H6" t="n">
-        <v>102.056640625</v>
+        <v>116.012321472168</v>
       </c>
       <c r="I6" t="n">
-        <v>598.8038330078125</v>
+        <v>887.3363647460938</v>
       </c>
       <c r="J6" t="n">
-        <v>253.0113830566406</v>
+        <v>89.31871032714844</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>330.9035949707031</v>
+        <v>202.8604888916016</v>
       </c>
       <c r="H7" t="n">
-        <v>89.67427825927734</v>
+        <v>39.16236877441406</v>
       </c>
       <c r="I7" t="n">
-        <v>414.4367065429688</v>
+        <v>574.7061157226562</v>
       </c>
       <c r="J7" t="n">
-        <v>323.592529296875</v>
+        <v>79.96502685546875</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>355.5177307128906</v>
+        <v>211.049072265625</v>
       </c>
       <c r="H8" t="n">
-        <v>91.08786773681641</v>
+        <v>41.03617477416992</v>
       </c>
       <c r="I8" t="n">
-        <v>443.7667846679688</v>
+        <v>640.4179077148438</v>
       </c>
       <c r="J8" t="n">
-        <v>329.1434020996094</v>
+        <v>81.88375854492188</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>399.9412841796875</v>
+        <v>227.9228057861328</v>
       </c>
       <c r="H9" t="n">
-        <v>91.43630981445312</v>
+        <v>44.87744522094727</v>
       </c>
       <c r="I9" t="n">
-        <v>518.980712890625</v>
+        <v>748.5833740234375</v>
       </c>
       <c r="J9" t="n">
-        <v>308.4177856445312</v>
+        <v>86.59140777587891</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>447.3171997070312</v>
+        <v>249.7126312255859</v>
       </c>
       <c r="H10" t="n">
-        <v>97.53534698486328</v>
+        <v>46.878173828125</v>
       </c>
       <c r="I10" t="n">
-        <v>580.0833129882812</v>
+        <v>801.2025756835938</v>
       </c>
       <c r="J10" t="n">
-        <v>281.694091796875</v>
+        <v>80.73002624511719</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>513.6536254882812</v>
+        <v>309.2921142578125</v>
       </c>
       <c r="H11" t="n">
-        <v>98.34144592285156</v>
+        <v>64.58632659912109</v>
       </c>
       <c r="I11" t="n">
-        <v>601.0077514648438</v>
+        <v>860.7634887695312</v>
       </c>
       <c r="J11" t="n">
-        <v>259.1650695800781</v>
+        <v>79.39656066894531</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>569.603515625</v>
+        <v>401.082275390625</v>
       </c>
       <c r="H12" t="n">
-        <v>99.07790374755859</v>
+        <v>91.54895782470703</v>
       </c>
       <c r="I12" t="n">
-        <v>584.6895751953125</v>
+        <v>885.57958984375</v>
       </c>
       <c r="J12" t="n">
-        <v>240.1811828613281</v>
+        <v>77.1678466796875</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>625.0015869140625</v>
+        <v>550.1954956054688</v>
       </c>
       <c r="H13" t="n">
-        <v>100.1124877929688</v>
+        <v>113.545524597168</v>
       </c>
       <c r="I13" t="n">
-        <v>509.3849487304688</v>
+        <v>904.9810180664062</v>
       </c>
       <c r="J13" t="n">
-        <v>256.8619689941406</v>
+        <v>78.39202117919922</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>304.5854187011719</v>
+        <v>179.3076477050781</v>
       </c>
       <c r="H14" t="n">
-        <v>92.56373596191406</v>
+        <v>37.12905120849609</v>
       </c>
       <c r="I14" t="n">
-        <v>324.0366821289062</v>
+        <v>408.6859130859375</v>
       </c>
       <c r="J14" t="n">
-        <v>350.7951049804688</v>
+        <v>85.889404296875</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>323.0967102050781</v>
+        <v>200.1927795410156</v>
       </c>
       <c r="H15" t="n">
-        <v>91.62248992919922</v>
+        <v>37.57510757446289</v>
       </c>
       <c r="I15" t="n">
-        <v>363.6084899902344</v>
+        <v>506.4588928222656</v>
       </c>
       <c r="J15" t="n">
-        <v>340.3167419433594</v>
+        <v>86.65504455566406</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>366.9416809082031</v>
+        <v>213.77294921875</v>
       </c>
       <c r="H16" t="n">
-        <v>91.69377899169922</v>
+        <v>36.81711196899414</v>
       </c>
       <c r="I16" t="n">
-        <v>456.1745910644531</v>
+        <v>652.8908081054688</v>
       </c>
       <c r="J16" t="n">
-        <v>309.9742431640625</v>
+        <v>84.04459381103516</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>368.5358276367188</v>
+        <v>224.2957763671875</v>
       </c>
       <c r="H17" t="n">
-        <v>88.82272338867188</v>
+        <v>36.40967559814453</v>
       </c>
       <c r="I17" t="n">
-        <v>446.4579162597656</v>
+        <v>692.730224609375</v>
       </c>
       <c r="J17" t="n">
-        <v>296.212890625</v>
+        <v>82.73432922363281</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>406.7167358398438</v>
+        <v>245.4390869140625</v>
       </c>
       <c r="H18" t="n">
-        <v>92.45455169677734</v>
+        <v>43.51751327514648</v>
       </c>
       <c r="I18" t="n">
-        <v>513.5640258789062</v>
+        <v>786.3961181640625</v>
       </c>
       <c r="J18" t="n">
-        <v>281.0097045898438</v>
+        <v>78.9229736328125</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>489.2222290039062</v>
+        <v>283.8365478515625</v>
       </c>
       <c r="H19" t="n">
-        <v>100.8262023925781</v>
+        <v>49.14636993408203</v>
       </c>
       <c r="I19" t="n">
-        <v>563.6555786132812</v>
+        <v>837.0747680664062</v>
       </c>
       <c r="J19" t="n">
-        <v>242.2379150390625</v>
+        <v>78.06559753417969</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>552.3590698242188</v>
+        <v>361.9736633300781</v>
       </c>
       <c r="H20" t="n">
-        <v>98.51686859130859</v>
+        <v>68.06578063964844</v>
       </c>
       <c r="I20" t="n">
-        <v>538.6400756835938</v>
+        <v>879.7586669921875</v>
       </c>
       <c r="J20" t="n">
-        <v>228.2534027099609</v>
+        <v>72.58597564697266</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>608.705078125</v>
+        <v>525.0572509765625</v>
       </c>
       <c r="H21" t="n">
-        <v>102.7642211914062</v>
+        <v>100.7671356201172</v>
       </c>
       <c r="I21" t="n">
-        <v>493.9800109863281</v>
+        <v>906.0870971679688</v>
       </c>
       <c r="J21" t="n">
-        <v>250.683837890625</v>
+        <v>76.01038360595703</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>648.1403198242188</v>
+        <v>712.5074462890625</v>
       </c>
       <c r="H22" t="n">
-        <v>99.65921783447266</v>
+        <v>85.54767608642578</v>
       </c>
       <c r="I22" t="n">
-        <v>478.6473388671875</v>
+        <v>932.2438354492188</v>
       </c>
       <c r="J22" t="n">
-        <v>280.0251159667969</v>
+        <v>84.01644897460938</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>294.1092529296875</v>
+        <v>175.5239410400391</v>
       </c>
       <c r="H23" t="n">
-        <v>91.96458435058594</v>
+        <v>37.52043533325195</v>
       </c>
       <c r="I23" t="n">
-        <v>245.9153137207031</v>
+        <v>309.3834228515625</v>
       </c>
       <c r="J23" t="n">
-        <v>341.416259765625</v>
+        <v>88.78791809082031</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>303.5604858398438</v>
+        <v>200.83056640625</v>
       </c>
       <c r="H24" t="n">
-        <v>90.92574310302734</v>
+        <v>36.63424682617188</v>
       </c>
       <c r="I24" t="n">
-        <v>298.3893737792969</v>
+        <v>393.5802917480469</v>
       </c>
       <c r="J24" t="n">
-        <v>330.7835388183594</v>
+        <v>99.07952880859375</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>316.8045043945312</v>
+        <v>219.0741882324219</v>
       </c>
       <c r="H25" t="n">
-        <v>87.96206665039062</v>
+        <v>34.37318420410156</v>
       </c>
       <c r="I25" t="n">
-        <v>349.2237854003906</v>
+        <v>499.281982421875</v>
       </c>
       <c r="J25" t="n">
-        <v>328.20654296875</v>
+        <v>103.6212692260742</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>342.4089965820312</v>
+        <v>228.7272186279297</v>
       </c>
       <c r="H26" t="n">
-        <v>85.22874450683594</v>
+        <v>32.36253356933594</v>
       </c>
       <c r="I26" t="n">
-        <v>387.1368713378906</v>
+        <v>614.4598999023438</v>
       </c>
       <c r="J26" t="n">
-        <v>296.1439819335938</v>
+        <v>106.7255249023438</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>380.8592834472656</v>
+        <v>247.8996124267578</v>
       </c>
       <c r="H27" t="n">
-        <v>93.13592529296875</v>
+        <v>35.57840347290039</v>
       </c>
       <c r="I27" t="n">
-        <v>425.5160217285156</v>
+        <v>728.9652099609375</v>
       </c>
       <c r="J27" t="n">
-        <v>279.9892578125</v>
+        <v>106.1159362792969</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>449.6951599121094</v>
+        <v>279.7722778320312</v>
       </c>
       <c r="H28" t="n">
-        <v>103.4554824829102</v>
+        <v>42.16237640380859</v>
       </c>
       <c r="I28" t="n">
-        <v>493.0335998535156</v>
+        <v>816.2345581054688</v>
       </c>
       <c r="J28" t="n">
-        <v>242.9816741943359</v>
+        <v>94.0057373046875</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>525.4296875</v>
+        <v>344.1603393554688</v>
       </c>
       <c r="H29" t="n">
-        <v>101.1487731933594</v>
+        <v>53.52150344848633</v>
       </c>
       <c r="I29" t="n">
-        <v>505.9830322265625</v>
+        <v>857.4315185546875</v>
       </c>
       <c r="J29" t="n">
-        <v>245.9667663574219</v>
+        <v>78.27309417724609</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>595.4268188476562</v>
+        <v>508.6905822753906</v>
       </c>
       <c r="H30" t="n">
-        <v>102.0290832519531</v>
+        <v>87.88543701171875</v>
       </c>
       <c r="I30" t="n">
-        <v>474.4979248046875</v>
+        <v>900.1571044921875</v>
       </c>
       <c r="J30" t="n">
-        <v>245.5458068847656</v>
+        <v>74.95026397705078</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>645.0404663085938</v>
+        <v>703.0814819335938</v>
       </c>
       <c r="H31" t="n">
-        <v>105.4718551635742</v>
+        <v>72.85144805908203</v>
       </c>
       <c r="I31" t="n">
-        <v>443.5037536621094</v>
+        <v>923.287109375</v>
       </c>
       <c r="J31" t="n">
-        <v>272.5204467773438</v>
+        <v>81.84274291992188</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>284.6828002929688</v>
+        <v>177.8073425292969</v>
       </c>
       <c r="H32" t="n">
-        <v>94.10182952880859</v>
+        <v>41.61503219604492</v>
       </c>
       <c r="I32" t="n">
-        <v>189.8311004638672</v>
+        <v>215.8797302246094</v>
       </c>
       <c r="J32" t="n">
-        <v>376.1154174804688</v>
+        <v>100.7744979858398</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>300.3515930175781</v>
+        <v>206.4466400146484</v>
       </c>
       <c r="H33" t="n">
-        <v>91.64720153808594</v>
+        <v>39.94137954711914</v>
       </c>
       <c r="I33" t="n">
-        <v>246.2940673828125</v>
+        <v>327.2650756835938</v>
       </c>
       <c r="J33" t="n">
-        <v>351.9563293457031</v>
+        <v>109.5891494750977</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>311.9772338867188</v>
+        <v>233.276123046875</v>
       </c>
       <c r="H34" t="n">
-        <v>87.72848510742188</v>
+        <v>37.48635101318359</v>
       </c>
       <c r="I34" t="n">
-        <v>269.7242736816406</v>
+        <v>448.3568115234375</v>
       </c>
       <c r="J34" t="n">
-        <v>331.8807373046875</v>
+        <v>126.6431427001953</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>335.3401184082031</v>
+        <v>245.3608856201172</v>
       </c>
       <c r="H35" t="n">
-        <v>90.86329650878906</v>
+        <v>31.63857078552246</v>
       </c>
       <c r="I35" t="n">
-        <v>314.6465759277344</v>
+        <v>547.4189453125</v>
       </c>
       <c r="J35" t="n">
-        <v>309.4086303710938</v>
+        <v>131.9764556884766</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>372.8144226074219</v>
+        <v>260.5497436523438</v>
       </c>
       <c r="H36" t="n">
-        <v>94.91214752197266</v>
+        <v>31.63003540039062</v>
       </c>
       <c r="I36" t="n">
-        <v>369.2587890625</v>
+        <v>687.9951782226562</v>
       </c>
       <c r="J36" t="n">
-        <v>289.5300598144531</v>
+        <v>118.5855331420898</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>420.2340393066406</v>
+        <v>286.7776489257812</v>
       </c>
       <c r="H37" t="n">
-        <v>97.66729736328125</v>
+        <v>37.84519195556641</v>
       </c>
       <c r="I37" t="n">
-        <v>420.9471740722656</v>
+        <v>786.9434814453125</v>
       </c>
       <c r="J37" t="n">
-        <v>268.6746520996094</v>
+        <v>118.7407989501953</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>509.5198364257812</v>
+        <v>354.3932189941406</v>
       </c>
       <c r="H38" t="n">
-        <v>107.6216125488281</v>
+        <v>53.57448959350586</v>
       </c>
       <c r="I38" t="n">
-        <v>445.6053161621094</v>
+        <v>852.9207153320312</v>
       </c>
       <c r="J38" t="n">
-        <v>241.8819885253906</v>
+        <v>95.74479675292969</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>575.048828125</v>
+        <v>494.529541015625</v>
       </c>
       <c r="H39" t="n">
-        <v>104.4819183349609</v>
+        <v>83.39370727539062</v>
       </c>
       <c r="I39" t="n">
-        <v>424.8153991699219</v>
+        <v>890.7296752929688</v>
       </c>
       <c r="J39" t="n">
-        <v>254.1544189453125</v>
+        <v>85.58419799804688</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>632.7273559570312</v>
+        <v>689.7932739257812</v>
       </c>
       <c r="H40" t="n">
-        <v>108.7690505981445</v>
+        <v>60.45647430419922</v>
       </c>
       <c r="I40" t="n">
-        <v>382.4435729980469</v>
+        <v>918.252197265625</v>
       </c>
       <c r="J40" t="n">
-        <v>280.0628051757812</v>
+        <v>84.70993041992188</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>278.0926818847656</v>
+        <v>188.1349182128906</v>
       </c>
       <c r="H41" t="n">
-        <v>89.23636627197266</v>
+        <v>47.91501617431641</v>
       </c>
       <c r="I41" t="n">
-        <v>144.9086608886719</v>
+        <v>164.0815887451172</v>
       </c>
       <c r="J41" t="n">
-        <v>378.9580993652344</v>
+        <v>100.9560928344727</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>290.2829284667969</v>
+        <v>212.6774291992188</v>
       </c>
       <c r="H42" t="n">
-        <v>87.26266479492188</v>
+        <v>50.04325103759766</v>
       </c>
       <c r="I42" t="n">
-        <v>161.1543426513672</v>
+        <v>232.2520294189453</v>
       </c>
       <c r="J42" t="n">
-        <v>354.2868957519531</v>
+        <v>116.1784591674805</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>301.4103393554688</v>
+        <v>233.2313995361328</v>
       </c>
       <c r="H43" t="n">
-        <v>84.84564208984375</v>
+        <v>46.61570358276367</v>
       </c>
       <c r="I43" t="n">
-        <v>210.4987945556641</v>
+        <v>312.2154541015625</v>
       </c>
       <c r="J43" t="n">
-        <v>353.7181701660156</v>
+        <v>120.4871292114258</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>329.8363952636719</v>
+        <v>256.5751647949219</v>
       </c>
       <c r="H44" t="n">
-        <v>89.35008239746094</v>
+        <v>35.09037399291992</v>
       </c>
       <c r="I44" t="n">
-        <v>288.2996826171875</v>
+        <v>472.4997863769531</v>
       </c>
       <c r="J44" t="n">
-        <v>311.6536865234375</v>
+        <v>132.1477966308594</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>358.511962890625</v>
+        <v>271.3087158203125</v>
       </c>
       <c r="H45" t="n">
-        <v>90.99303436279297</v>
+        <v>32.99704360961914</v>
       </c>
       <c r="I45" t="n">
-        <v>294.3341979980469</v>
+        <v>574.6190185546875</v>
       </c>
       <c r="J45" t="n">
-        <v>308.6093444824219</v>
+        <v>138.9252471923828</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>407.1518859863281</v>
+        <v>294.2923278808594</v>
       </c>
       <c r="H46" t="n">
-        <v>99.90653991699219</v>
+        <v>33.27035903930664</v>
       </c>
       <c r="I46" t="n">
-        <v>361.1391906738281</v>
+        <v>735.7815551757812</v>
       </c>
       <c r="J46" t="n">
-        <v>290.6026611328125</v>
+        <v>134.4137725830078</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>485.1655578613281</v>
+        <v>360.1119689941406</v>
       </c>
       <c r="H47" t="n">
-        <v>108.7356872558594</v>
+        <v>51.55399703979492</v>
       </c>
       <c r="I47" t="n">
-        <v>402.3682861328125</v>
+        <v>842.9696044921875</v>
       </c>
       <c r="J47" t="n">
-        <v>253.5257263183594</v>
+        <v>116.6202621459961</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>568.5895385742188</v>
+        <v>500.6262512207031</v>
       </c>
       <c r="H48" t="n">
-        <v>109.4219741821289</v>
+        <v>81.42727661132812</v>
       </c>
       <c r="I48" t="n">
-        <v>387.9119567871094</v>
+        <v>893.53125</v>
       </c>
       <c r="J48" t="n">
-        <v>267.0352783203125</v>
+        <v>88.50464630126953</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>618.8256225585938</v>
+        <v>665.2080688476562</v>
       </c>
       <c r="H49" t="n">
-        <v>104.3611145019531</v>
+        <v>63.42160034179688</v>
       </c>
       <c r="I49" t="n">
-        <v>367.7838134765625</v>
+        <v>914.3585205078125</v>
       </c>
       <c r="J49" t="n">
-        <v>281.4223937988281</v>
+        <v>87.90292358398438</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>281.9887390136719</v>
+        <v>196.0329742431641</v>
       </c>
       <c r="H50" t="n">
-        <v>89.53123474121094</v>
+        <v>55.45695114135742</v>
       </c>
       <c r="I50" t="n">
-        <v>76.87836456298828</v>
+        <v>101.7329711914062</v>
       </c>
       <c r="J50" t="n">
-        <v>374.61572265625</v>
+        <v>99.72257232666016</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>291.4778137207031</v>
+        <v>221.1047210693359</v>
       </c>
       <c r="H51" t="n">
-        <v>84.91439819335938</v>
+        <v>59.67849731445312</v>
       </c>
       <c r="I51" t="n">
-        <v>122.8567199707031</v>
+        <v>161.6282043457031</v>
       </c>
       <c r="J51" t="n">
-        <v>366.0609436035156</v>
+        <v>111.4065628051758</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>307.075439453125</v>
+        <v>235.3533630371094</v>
       </c>
       <c r="H52" t="n">
-        <v>88.14751434326172</v>
+        <v>54.48766326904297</v>
       </c>
       <c r="I52" t="n">
-        <v>138.0488739013672</v>
+        <v>213.7325592041016</v>
       </c>
       <c r="J52" t="n">
-        <v>341.1701965332031</v>
+        <v>119.9869842529297</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>332.2079467773438</v>
+        <v>261.1975402832031</v>
       </c>
       <c r="H53" t="n">
-        <v>90.23086547851562</v>
+        <v>46.02757263183594</v>
       </c>
       <c r="I53" t="n">
-        <v>206.0981140136719</v>
+        <v>357.655517578125</v>
       </c>
       <c r="J53" t="n">
-        <v>313.5414428710938</v>
+        <v>128.3733215332031</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>365.828369140625</v>
+        <v>283.4029235839844</v>
       </c>
       <c r="H54" t="n">
-        <v>94.80998992919922</v>
+        <v>35.34304428100586</v>
       </c>
       <c r="I54" t="n">
-        <v>264.9067077636719</v>
+        <v>513.4353637695312</v>
       </c>
       <c r="J54" t="n">
-        <v>297.4306945800781</v>
+        <v>131.3632965087891</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>408.91943359375</v>
+        <v>312.8324584960938</v>
       </c>
       <c r="H55" t="n">
-        <v>98.66519927978516</v>
+        <v>35.26526260375977</v>
       </c>
       <c r="I55" t="n">
-        <v>325.4454040527344</v>
+        <v>680.2670288085938</v>
       </c>
       <c r="J55" t="n">
-        <v>295.7186279296875</v>
+        <v>135.1596527099609</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>454.9583740234375</v>
+        <v>362.8020324707031</v>
       </c>
       <c r="H56" t="n">
-        <v>103.5989608764648</v>
+        <v>42.96349334716797</v>
       </c>
       <c r="I56" t="n">
-        <v>335.7175903320312</v>
+        <v>802.5798950195312</v>
       </c>
       <c r="J56" t="n">
-        <v>273.2831420898438</v>
+        <v>124.8092422485352</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>529.615234375</v>
+        <v>476.9909362792969</v>
       </c>
       <c r="H57" t="n">
-        <v>113.209602355957</v>
+        <v>74.58795928955078</v>
       </c>
       <c r="I57" t="n">
-        <v>354.0238342285156</v>
+        <v>884.3558349609375</v>
       </c>
       <c r="J57" t="n">
-        <v>276.949462890625</v>
+        <v>113.2704010009766</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>609.9756469726562</v>
+        <v>666.7789306640625</v>
       </c>
       <c r="H58" t="n">
-        <v>109.7229919433594</v>
+        <v>50.02614212036133</v>
       </c>
       <c r="I58" t="n">
-        <v>317.9507751464844</v>
+        <v>910.4815673828125</v>
       </c>
       <c r="J58" t="n">
-        <v>294.2564086914062</v>
+        <v>100.1109161376953</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>297.5118103027344</v>
+        <v>220.6192932128906</v>
       </c>
       <c r="H59" t="n">
-        <v>89.08245849609375</v>
+        <v>64.75090789794922</v>
       </c>
       <c r="I59" t="n">
-        <v>63.1859245300293</v>
+        <v>71.02027130126953</v>
       </c>
       <c r="J59" t="n">
-        <v>359.470703125</v>
+        <v>105.9990081787109</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>318.3528137207031</v>
+        <v>238.6872863769531</v>
       </c>
       <c r="H60" t="n">
-        <v>90.86083221435547</v>
+        <v>61.01072692871094</v>
       </c>
       <c r="I60" t="n">
-        <v>114.2107009887695</v>
+        <v>134.6280364990234</v>
       </c>
       <c r="J60" t="n">
-        <v>347.1847839355469</v>
+        <v>122.0845794677734</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>329.9398193359375</v>
+        <v>258.1373291015625</v>
       </c>
       <c r="H61" t="n">
-        <v>92.81291961669922</v>
+        <v>58.73974609375</v>
       </c>
       <c r="I61" t="n">
-        <v>134.0948638916016</v>
+        <v>213.8898773193359</v>
       </c>
       <c r="J61" t="n">
-        <v>326.554443359375</v>
+        <v>133.6447601318359</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>361.0485534667969</v>
+        <v>286.1012268066406</v>
       </c>
       <c r="H62" t="n">
-        <v>92.99903869628906</v>
+        <v>48.38087844848633</v>
       </c>
       <c r="I62" t="n">
-        <v>193.8500061035156</v>
+        <v>359.8670349121094</v>
       </c>
       <c r="J62" t="n">
-        <v>316.783935546875</v>
+        <v>153.9463348388672</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>392.8405456542969</v>
+        <v>317.1295166015625</v>
       </c>
       <c r="H63" t="n">
-        <v>94.63852691650391</v>
+        <v>42.32158279418945</v>
       </c>
       <c r="I63" t="n">
-        <v>270.2649536132812</v>
+        <v>563.9036865234375</v>
       </c>
       <c r="J63" t="n">
-        <v>302.6600952148438</v>
+        <v>147.0569458007812</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>441.3782958984375</v>
+        <v>374.5286865234375</v>
       </c>
       <c r="H64" t="n">
-        <v>101.4549865722656</v>
+        <v>51.02187347412109</v>
       </c>
       <c r="I64" t="n">
-        <v>309.2991333007812</v>
+        <v>752.9296875</v>
       </c>
       <c r="J64" t="n">
-        <v>282.0730590820312</v>
+        <v>121.9275207519531</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>514.8903198242188</v>
+        <v>487.2896728515625</v>
       </c>
       <c r="H65" t="n">
-        <v>115.9415817260742</v>
+        <v>76.71886444091797</v>
       </c>
       <c r="I65" t="n">
-        <v>322.4924926757812</v>
+        <v>870.8316650390625</v>
       </c>
       <c r="J65" t="n">
-        <v>301.1217651367188</v>
+        <v>125.2233123779297</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>320.7379455566406</v>
+        <v>237.3493804931641</v>
       </c>
       <c r="H66" t="n">
-        <v>90.65272521972656</v>
+        <v>71.91243743896484</v>
       </c>
       <c r="I66" t="n">
-        <v>47.85324478149414</v>
+        <v>32.50597381591797</v>
       </c>
       <c r="J66" t="n">
-        <v>348.3393859863281</v>
+        <v>103.0937194824219</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>337.2701416015625</v>
+        <v>252.7005004882812</v>
       </c>
       <c r="H67" t="n">
-        <v>96.83454132080078</v>
+        <v>70.91179656982422</v>
       </c>
       <c r="I67" t="n">
-        <v>75.32122039794922</v>
+        <v>82.85250854492188</v>
       </c>
       <c r="J67" t="n">
-        <v>345.7250061035156</v>
+        <v>117.26708984375</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>365.7878723144531</v>
+        <v>290.2265625</v>
       </c>
       <c r="H68" t="n">
-        <v>93.86149597167969</v>
+        <v>65.612060546875</v>
       </c>
       <c r="I68" t="n">
-        <v>155.9761810302734</v>
+        <v>249.7968292236328</v>
       </c>
       <c r="J68" t="n">
-        <v>313.9717407226562</v>
+        <v>162.3955841064453</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>383.5689697265625</v>
+        <v>320.4748840332031</v>
       </c>
       <c r="H69" t="n">
-        <v>92.56520843505859</v>
+        <v>60.63846206665039</v>
       </c>
       <c r="I69" t="n">
-        <v>195.6523742675781</v>
+        <v>399.3954467773438</v>
       </c>
       <c r="J69" t="n">
-        <v>312.2188110351562</v>
+        <v>182.0919799804688</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>429.414306640625</v>
+        <v>375.1344909667969</v>
       </c>
       <c r="H70" t="n">
-        <v>95.98081970214844</v>
+        <v>59.66575241088867</v>
       </c>
       <c r="I70" t="n">
-        <v>259.1881103515625</v>
+        <v>684.673095703125</v>
       </c>
       <c r="J70" t="n">
-        <v>293.9898681640625</v>
+        <v>143.2388610839844</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_0/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_0/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>220.8191680908203</v>
+        <v>224.5005950927734</v>
       </c>
       <c r="H2" t="n">
-        <v>50.23445129394531</v>
+        <v>50.85171508789062</v>
       </c>
       <c r="I2" t="n">
-        <v>687.4422607421875</v>
+        <v>687.8839721679688</v>
       </c>
       <c r="J2" t="n">
-        <v>95.12493133544922</v>
+        <v>95.67050933837891</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>244.2071380615234</v>
+        <v>248.3419342041016</v>
       </c>
       <c r="H3" t="n">
-        <v>54.09180068969727</v>
+        <v>56.76199340820312</v>
       </c>
       <c r="I3" t="n">
-        <v>770.844970703125</v>
+        <v>772.5491943359375</v>
       </c>
       <c r="J3" t="n">
-        <v>88.78175354003906</v>
+        <v>94.67548370361328</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>285.6131591796875</v>
+        <v>285.1512145996094</v>
       </c>
       <c r="H4" t="n">
-        <v>60.99767303466797</v>
+        <v>59.33977508544922</v>
       </c>
       <c r="I4" t="n">
-        <v>826.8572387695312</v>
+        <v>822.2420654296875</v>
       </c>
       <c r="J4" t="n">
-        <v>84.79158020019531</v>
+        <v>90.86676788330078</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>349.8923950195312</v>
+        <v>352.6659545898438</v>
       </c>
       <c r="H5" t="n">
-        <v>81.51287078857422</v>
+        <v>80.15813446044922</v>
       </c>
       <c r="I5" t="n">
-        <v>868.5240478515625</v>
+        <v>869.631591796875</v>
       </c>
       <c r="J5" t="n">
-        <v>89.7022705078125</v>
+        <v>89.15043640136719</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>456.2643737792969</v>
+        <v>461.3229064941406</v>
       </c>
       <c r="H6" t="n">
-        <v>116.012321472168</v>
+        <v>121.6388931274414</v>
       </c>
       <c r="I6" t="n">
-        <v>887.3363647460938</v>
+        <v>893.7713623046875</v>
       </c>
       <c r="J6" t="n">
-        <v>89.31871032714844</v>
+        <v>94.17182922363281</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>202.8604888916016</v>
+        <v>201.6471099853516</v>
       </c>
       <c r="H7" t="n">
-        <v>39.16236877441406</v>
+        <v>39.24649047851562</v>
       </c>
       <c r="I7" t="n">
-        <v>574.7061157226562</v>
+        <v>577.0321655273438</v>
       </c>
       <c r="J7" t="n">
-        <v>79.96502685546875</v>
+        <v>78.12532806396484</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>211.049072265625</v>
+        <v>211.0246734619141</v>
       </c>
       <c r="H8" t="n">
-        <v>41.03617477416992</v>
+        <v>41.16630172729492</v>
       </c>
       <c r="I8" t="n">
-        <v>640.4179077148438</v>
+        <v>634.240478515625</v>
       </c>
       <c r="J8" t="n">
-        <v>81.88375854492188</v>
+        <v>80.67691802978516</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>227.9228057861328</v>
+        <v>229.3425750732422</v>
       </c>
       <c r="H9" t="n">
-        <v>44.87744522094727</v>
+        <v>45.20134735107422</v>
       </c>
       <c r="I9" t="n">
-        <v>748.5833740234375</v>
+        <v>752.5299072265625</v>
       </c>
       <c r="J9" t="n">
-        <v>86.59140777587891</v>
+        <v>81.53694915771484</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>249.7126312255859</v>
+        <v>250.1812286376953</v>
       </c>
       <c r="H10" t="n">
-        <v>46.878173828125</v>
+        <v>47.90977478027344</v>
       </c>
       <c r="I10" t="n">
-        <v>801.2025756835938</v>
+        <v>799.091552734375</v>
       </c>
       <c r="J10" t="n">
-        <v>80.73002624511719</v>
+        <v>79.5118408203125</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>309.2921142578125</v>
+        <v>302.8100280761719</v>
       </c>
       <c r="H11" t="n">
-        <v>64.58632659912109</v>
+        <v>58.27054214477539</v>
       </c>
       <c r="I11" t="n">
-        <v>860.7634887695312</v>
+        <v>861.8299560546875</v>
       </c>
       <c r="J11" t="n">
-        <v>79.39656066894531</v>
+        <v>76.42471313476562</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>401.082275390625</v>
+        <v>401.8480529785156</v>
       </c>
       <c r="H12" t="n">
-        <v>91.54895782470703</v>
+        <v>91.33684539794922</v>
       </c>
       <c r="I12" t="n">
-        <v>885.57958984375</v>
+        <v>886.7412719726562</v>
       </c>
       <c r="J12" t="n">
-        <v>77.1678466796875</v>
+        <v>79.27194213867188</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>550.1954956054688</v>
+        <v>554.7217407226562</v>
       </c>
       <c r="H13" t="n">
-        <v>113.545524597168</v>
+        <v>117.2521209716797</v>
       </c>
       <c r="I13" t="n">
-        <v>904.9810180664062</v>
+        <v>906.8413696289062</v>
       </c>
       <c r="J13" t="n">
-        <v>78.39202117919922</v>
+        <v>79.64096069335938</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>179.3076477050781</v>
+        <v>181.7021179199219</v>
       </c>
       <c r="H14" t="n">
-        <v>37.12905120849609</v>
+        <v>40.29441070556641</v>
       </c>
       <c r="I14" t="n">
-        <v>408.6859130859375</v>
+        <v>411.5511169433594</v>
       </c>
       <c r="J14" t="n">
-        <v>85.889404296875</v>
+        <v>83.95890045166016</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>200.1927795410156</v>
+        <v>199.9622344970703</v>
       </c>
       <c r="H15" t="n">
-        <v>37.57510757446289</v>
+        <v>39.47553634643555</v>
       </c>
       <c r="I15" t="n">
-        <v>506.4588928222656</v>
+        <v>508.614013671875</v>
       </c>
       <c r="J15" t="n">
-        <v>86.65504455566406</v>
+        <v>81.05516052246094</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>213.77294921875</v>
+        <v>213.41552734375</v>
       </c>
       <c r="H16" t="n">
-        <v>36.81711196899414</v>
+        <v>37.75283432006836</v>
       </c>
       <c r="I16" t="n">
-        <v>652.8908081054688</v>
+        <v>651.3202514648438</v>
       </c>
       <c r="J16" t="n">
-        <v>84.04459381103516</v>
+        <v>82.78947448730469</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>224.2957763671875</v>
+        <v>224.5574951171875</v>
       </c>
       <c r="H17" t="n">
-        <v>36.40967559814453</v>
+        <v>38.01447296142578</v>
       </c>
       <c r="I17" t="n">
-        <v>692.730224609375</v>
+        <v>688.5328369140625</v>
       </c>
       <c r="J17" t="n">
-        <v>82.73432922363281</v>
+        <v>87.73007965087891</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>245.4390869140625</v>
+        <v>243.4430694580078</v>
       </c>
       <c r="H18" t="n">
-        <v>43.51751327514648</v>
+        <v>42.77952194213867</v>
       </c>
       <c r="I18" t="n">
-        <v>786.3961181640625</v>
+        <v>788.040283203125</v>
       </c>
       <c r="J18" t="n">
-        <v>78.9229736328125</v>
+        <v>77.26694488525391</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>283.8365478515625</v>
+        <v>284.0783996582031</v>
       </c>
       <c r="H19" t="n">
-        <v>49.14636993408203</v>
+        <v>48.51053237915039</v>
       </c>
       <c r="I19" t="n">
-        <v>837.0747680664062</v>
+        <v>836.0736694335938</v>
       </c>
       <c r="J19" t="n">
-        <v>78.06559753417969</v>
+        <v>76.37751007080078</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>361.9736633300781</v>
+        <v>361.467529296875</v>
       </c>
       <c r="H20" t="n">
-        <v>68.06578063964844</v>
+        <v>66.01895141601562</v>
       </c>
       <c r="I20" t="n">
-        <v>879.7586669921875</v>
+        <v>875.072998046875</v>
       </c>
       <c r="J20" t="n">
-        <v>72.58597564697266</v>
+        <v>74.04953765869141</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>525.0572509765625</v>
+        <v>518.8146362304688</v>
       </c>
       <c r="H21" t="n">
-        <v>100.7671356201172</v>
+        <v>94.77102661132812</v>
       </c>
       <c r="I21" t="n">
-        <v>906.0870971679688</v>
+        <v>903.697509765625</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01038360595703</v>
+        <v>78.61266326904297</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>712.5074462890625</v>
+        <v>714.0648193359375</v>
       </c>
       <c r="H22" t="n">
-        <v>85.54767608642578</v>
+        <v>81.37234497070312</v>
       </c>
       <c r="I22" t="n">
-        <v>932.2438354492188</v>
+        <v>938.8160400390625</v>
       </c>
       <c r="J22" t="n">
-        <v>84.01644897460938</v>
+        <v>85.77409362792969</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>175.5239410400391</v>
+        <v>175.2917938232422</v>
       </c>
       <c r="H23" t="n">
-        <v>37.52043533325195</v>
+        <v>36.78481292724609</v>
       </c>
       <c r="I23" t="n">
-        <v>309.3834228515625</v>
+        <v>311.5863952636719</v>
       </c>
       <c r="J23" t="n">
-        <v>88.78791809082031</v>
+        <v>90.42266845703125</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>200.83056640625</v>
+        <v>200.3704528808594</v>
       </c>
       <c r="H24" t="n">
-        <v>36.63424682617188</v>
+        <v>35.87347030639648</v>
       </c>
       <c r="I24" t="n">
-        <v>393.5802917480469</v>
+        <v>393.7862243652344</v>
       </c>
       <c r="J24" t="n">
-        <v>99.07952880859375</v>
+        <v>100.146614074707</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>219.0741882324219</v>
+        <v>221.6031799316406</v>
       </c>
       <c r="H25" t="n">
-        <v>34.37318420410156</v>
+        <v>35.11293792724609</v>
       </c>
       <c r="I25" t="n">
-        <v>499.281982421875</v>
+        <v>503.7824401855469</v>
       </c>
       <c r="J25" t="n">
-        <v>103.6212692260742</v>
+        <v>104.6478118896484</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>228.7272186279297</v>
+        <v>228.2208862304688</v>
       </c>
       <c r="H26" t="n">
-        <v>32.36253356933594</v>
+        <v>32.21975708007812</v>
       </c>
       <c r="I26" t="n">
-        <v>614.4598999023438</v>
+        <v>615.6827392578125</v>
       </c>
       <c r="J26" t="n">
-        <v>106.7255249023438</v>
+        <v>104.685546875</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>247.8996124267578</v>
+        <v>246.4491119384766</v>
       </c>
       <c r="H27" t="n">
-        <v>35.57840347290039</v>
+        <v>33.08164215087891</v>
       </c>
       <c r="I27" t="n">
-        <v>728.9652099609375</v>
+        <v>721.154296875</v>
       </c>
       <c r="J27" t="n">
-        <v>106.1159362792969</v>
+        <v>109.2577819824219</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>279.7722778320312</v>
+        <v>281.5068969726562</v>
       </c>
       <c r="H28" t="n">
-        <v>42.16237640380859</v>
+        <v>42.51325607299805</v>
       </c>
       <c r="I28" t="n">
-        <v>816.2345581054688</v>
+        <v>815.1535034179688</v>
       </c>
       <c r="J28" t="n">
-        <v>94.0057373046875</v>
+        <v>93.7510986328125</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>344.1603393554688</v>
+        <v>344.2781982421875</v>
       </c>
       <c r="H29" t="n">
-        <v>53.52150344848633</v>
+        <v>54.83468627929688</v>
       </c>
       <c r="I29" t="n">
-        <v>857.4315185546875</v>
+        <v>858.044189453125</v>
       </c>
       <c r="J29" t="n">
-        <v>78.27309417724609</v>
+        <v>78.83214569091797</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>508.6905822753906</v>
+        <v>509.7793273925781</v>
       </c>
       <c r="H30" t="n">
-        <v>87.88543701171875</v>
+        <v>88.01296234130859</v>
       </c>
       <c r="I30" t="n">
-        <v>900.1571044921875</v>
+        <v>898.5413818359375</v>
       </c>
       <c r="J30" t="n">
-        <v>74.95026397705078</v>
+        <v>76.48944091796875</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>703.0814819335938</v>
+        <v>698.1764526367188</v>
       </c>
       <c r="H31" t="n">
-        <v>72.85144805908203</v>
+        <v>73.05448150634766</v>
       </c>
       <c r="I31" t="n">
-        <v>923.287109375</v>
+        <v>928.688720703125</v>
       </c>
       <c r="J31" t="n">
-        <v>81.84274291992188</v>
+        <v>79.68578338623047</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>177.8073425292969</v>
+        <v>175.90283203125</v>
       </c>
       <c r="H32" t="n">
-        <v>41.61503219604492</v>
+        <v>41.12512969970703</v>
       </c>
       <c r="I32" t="n">
-        <v>215.8797302246094</v>
+        <v>215.1723022460938</v>
       </c>
       <c r="J32" t="n">
-        <v>100.7744979858398</v>
+        <v>96.04208374023438</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>206.4466400146484</v>
+        <v>205.7592315673828</v>
       </c>
       <c r="H33" t="n">
-        <v>39.94137954711914</v>
+        <v>41.15555572509766</v>
       </c>
       <c r="I33" t="n">
-        <v>327.2650756835938</v>
+        <v>320.816650390625</v>
       </c>
       <c r="J33" t="n">
-        <v>109.5891494750977</v>
+        <v>117.1414337158203</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>233.276123046875</v>
+        <v>233.716796875</v>
       </c>
       <c r="H34" t="n">
-        <v>37.48635101318359</v>
+        <v>38.47624588012695</v>
       </c>
       <c r="I34" t="n">
-        <v>448.3568115234375</v>
+        <v>442.0098876953125</v>
       </c>
       <c r="J34" t="n">
-        <v>126.6431427001953</v>
+        <v>120.015998840332</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>245.3608856201172</v>
+        <v>246.0191192626953</v>
       </c>
       <c r="H35" t="n">
-        <v>31.63857078552246</v>
+        <v>32.14926910400391</v>
       </c>
       <c r="I35" t="n">
-        <v>547.4189453125</v>
+        <v>546.6490478515625</v>
       </c>
       <c r="J35" t="n">
-        <v>131.9764556884766</v>
+        <v>125.1164321899414</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>260.5497436523438</v>
+        <v>259.9571228027344</v>
       </c>
       <c r="H36" t="n">
-        <v>31.63003540039062</v>
+        <v>32.2686882019043</v>
       </c>
       <c r="I36" t="n">
-        <v>687.9951782226562</v>
+        <v>687.025390625</v>
       </c>
       <c r="J36" t="n">
-        <v>118.5855331420898</v>
+        <v>128.3843383789062</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>286.7776489257812</v>
+        <v>286.3890991210938</v>
       </c>
       <c r="H37" t="n">
-        <v>37.84519195556641</v>
+        <v>39.08626174926758</v>
       </c>
       <c r="I37" t="n">
-        <v>786.9434814453125</v>
+        <v>792.37548828125</v>
       </c>
       <c r="J37" t="n">
-        <v>118.7407989501953</v>
+        <v>122.0166091918945</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>354.3932189941406</v>
+        <v>358.5558471679688</v>
       </c>
       <c r="H38" t="n">
-        <v>53.57448959350586</v>
+        <v>52.45755767822266</v>
       </c>
       <c r="I38" t="n">
-        <v>852.9207153320312</v>
+        <v>851.7850341796875</v>
       </c>
       <c r="J38" t="n">
-        <v>95.74479675292969</v>
+        <v>100.876091003418</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>494.529541015625</v>
+        <v>495.3090515136719</v>
       </c>
       <c r="H39" t="n">
-        <v>83.39370727539062</v>
+        <v>87.29785919189453</v>
       </c>
       <c r="I39" t="n">
-        <v>890.7296752929688</v>
+        <v>890.2147827148438</v>
       </c>
       <c r="J39" t="n">
-        <v>85.58419799804688</v>
+        <v>85.47119903564453</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>689.7932739257812</v>
+        <v>689.040283203125</v>
       </c>
       <c r="H40" t="n">
-        <v>60.45647430419922</v>
+        <v>63.26696395874023</v>
       </c>
       <c r="I40" t="n">
-        <v>918.252197265625</v>
+        <v>919.51708984375</v>
       </c>
       <c r="J40" t="n">
-        <v>84.70993041992188</v>
+        <v>86.39775848388672</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>188.1349182128906</v>
+        <v>186.6795349121094</v>
       </c>
       <c r="H41" t="n">
-        <v>47.91501617431641</v>
+        <v>47.52831268310547</v>
       </c>
       <c r="I41" t="n">
-        <v>164.0815887451172</v>
+        <v>163.9150543212891</v>
       </c>
       <c r="J41" t="n">
-        <v>100.9560928344727</v>
+        <v>102.1023483276367</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>212.6774291992188</v>
+        <v>211.9900970458984</v>
       </c>
       <c r="H42" t="n">
-        <v>50.04325103759766</v>
+        <v>48.1034049987793</v>
       </c>
       <c r="I42" t="n">
-        <v>232.2520294189453</v>
+        <v>231.8291931152344</v>
       </c>
       <c r="J42" t="n">
-        <v>116.1784591674805</v>
+        <v>113.1959457397461</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>233.2313995361328</v>
+        <v>234.2986145019531</v>
       </c>
       <c r="H43" t="n">
-        <v>46.61570358276367</v>
+        <v>47.14432525634766</v>
       </c>
       <c r="I43" t="n">
-        <v>312.2154541015625</v>
+        <v>307.6686401367188</v>
       </c>
       <c r="J43" t="n">
-        <v>120.4871292114258</v>
+        <v>125.6976318359375</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>256.5751647949219</v>
+        <v>256.9432678222656</v>
       </c>
       <c r="H44" t="n">
-        <v>35.09037399291992</v>
+        <v>36.86038970947266</v>
       </c>
       <c r="I44" t="n">
-        <v>472.4997863769531</v>
+        <v>482.0989074707031</v>
       </c>
       <c r="J44" t="n">
-        <v>132.1477966308594</v>
+        <v>128.9487152099609</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>271.3087158203125</v>
+        <v>270.9862365722656</v>
       </c>
       <c r="H45" t="n">
-        <v>32.99704360961914</v>
+        <v>30.98870468139648</v>
       </c>
       <c r="I45" t="n">
-        <v>574.6190185546875</v>
+        <v>576.7899780273438</v>
       </c>
       <c r="J45" t="n">
-        <v>138.9252471923828</v>
+        <v>139.5139923095703</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>294.2923278808594</v>
+        <v>296.002685546875</v>
       </c>
       <c r="H46" t="n">
-        <v>33.27035903930664</v>
+        <v>32.75337600708008</v>
       </c>
       <c r="I46" t="n">
-        <v>735.7815551757812</v>
+        <v>735.4014282226562</v>
       </c>
       <c r="J46" t="n">
-        <v>134.4137725830078</v>
+        <v>127.2241363525391</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>360.1119689941406</v>
+        <v>358.5609130859375</v>
       </c>
       <c r="H47" t="n">
-        <v>51.55399703979492</v>
+        <v>49.98809432983398</v>
       </c>
       <c r="I47" t="n">
-        <v>842.9696044921875</v>
+        <v>849.6063232421875</v>
       </c>
       <c r="J47" t="n">
-        <v>116.6202621459961</v>
+        <v>114.5453720092773</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>500.6262512207031</v>
+        <v>501.5878601074219</v>
       </c>
       <c r="H48" t="n">
-        <v>81.42727661132812</v>
+        <v>84.208984375</v>
       </c>
       <c r="I48" t="n">
-        <v>893.53125</v>
+        <v>888.755615234375</v>
       </c>
       <c r="J48" t="n">
-        <v>88.50464630126953</v>
+        <v>91.70870208740234</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>665.2080688476562</v>
+        <v>665.5684814453125</v>
       </c>
       <c r="H49" t="n">
-        <v>63.42160034179688</v>
+        <v>59.49608993530273</v>
       </c>
       <c r="I49" t="n">
-        <v>914.3585205078125</v>
+        <v>913.7144775390625</v>
       </c>
       <c r="J49" t="n">
-        <v>87.90292358398438</v>
+        <v>90.11672973632812</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>196.0329742431641</v>
+        <v>196.5604705810547</v>
       </c>
       <c r="H50" t="n">
-        <v>55.45695114135742</v>
+        <v>56.04921722412109</v>
       </c>
       <c r="I50" t="n">
-        <v>101.7329711914062</v>
+        <v>101.6204147338867</v>
       </c>
       <c r="J50" t="n">
-        <v>99.72257232666016</v>
+        <v>104.1339492797852</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>221.1047210693359</v>
+        <v>218.5428619384766</v>
       </c>
       <c r="H51" t="n">
-        <v>59.67849731445312</v>
+        <v>56.53913497924805</v>
       </c>
       <c r="I51" t="n">
-        <v>161.6282043457031</v>
+        <v>160.9907989501953</v>
       </c>
       <c r="J51" t="n">
-        <v>111.4065628051758</v>
+        <v>112.616325378418</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>235.3533630371094</v>
+        <v>236.7482299804688</v>
       </c>
       <c r="H52" t="n">
-        <v>54.48766326904297</v>
+        <v>55.40330505371094</v>
       </c>
       <c r="I52" t="n">
-        <v>213.7325592041016</v>
+        <v>211.7518463134766</v>
       </c>
       <c r="J52" t="n">
-        <v>119.9869842529297</v>
+        <v>120.680549621582</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>261.1975402832031</v>
+        <v>261.7032165527344</v>
       </c>
       <c r="H53" t="n">
-        <v>46.02757263183594</v>
+        <v>42.85830307006836</v>
       </c>
       <c r="I53" t="n">
-        <v>357.655517578125</v>
+        <v>351.0687255859375</v>
       </c>
       <c r="J53" t="n">
-        <v>128.3733215332031</v>
+        <v>135.1252136230469</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>283.4029235839844</v>
+        <v>286.9712829589844</v>
       </c>
       <c r="H54" t="n">
-        <v>35.34304428100586</v>
+        <v>36.11397171020508</v>
       </c>
       <c r="I54" t="n">
-        <v>513.4353637695312</v>
+        <v>507.3072509765625</v>
       </c>
       <c r="J54" t="n">
-        <v>131.3632965087891</v>
+        <v>132.5557861328125</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>312.8324584960938</v>
+        <v>312.5247802734375</v>
       </c>
       <c r="H55" t="n">
-        <v>35.26526260375977</v>
+        <v>35.65650939941406</v>
       </c>
       <c r="I55" t="n">
-        <v>680.2670288085938</v>
+        <v>677.1002197265625</v>
       </c>
       <c r="J55" t="n">
-        <v>135.1596527099609</v>
+        <v>136.1994781494141</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>362.8020324707031</v>
+        <v>366.0243530273438</v>
       </c>
       <c r="H56" t="n">
-        <v>42.96349334716797</v>
+        <v>46.47172546386719</v>
       </c>
       <c r="I56" t="n">
-        <v>802.5798950195312</v>
+        <v>806.7459106445312</v>
       </c>
       <c r="J56" t="n">
-        <v>124.8092422485352</v>
+        <v>119.863655090332</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>476.9909362792969</v>
+        <v>477.3092041015625</v>
       </c>
       <c r="H57" t="n">
-        <v>74.58795928955078</v>
+        <v>75.21007537841797</v>
       </c>
       <c r="I57" t="n">
-        <v>884.3558349609375</v>
+        <v>880.0875854492188</v>
       </c>
       <c r="J57" t="n">
-        <v>113.2704010009766</v>
+        <v>109.7333908081055</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>666.7789306640625</v>
+        <v>665.180908203125</v>
       </c>
       <c r="H58" t="n">
-        <v>50.02614212036133</v>
+        <v>52.71969604492188</v>
       </c>
       <c r="I58" t="n">
-        <v>910.4815673828125</v>
+        <v>911.0982055664062</v>
       </c>
       <c r="J58" t="n">
-        <v>100.1109161376953</v>
+        <v>94.77374267578125</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>220.6192932128906</v>
+        <v>216.5199279785156</v>
       </c>
       <c r="H59" t="n">
-        <v>64.75090789794922</v>
+        <v>61.99136352539062</v>
       </c>
       <c r="I59" t="n">
-        <v>71.02027130126953</v>
+        <v>72.33407592773438</v>
       </c>
       <c r="J59" t="n">
-        <v>105.9990081787109</v>
+        <v>105.9906311035156</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>238.6872863769531</v>
+        <v>240.2490692138672</v>
       </c>
       <c r="H60" t="n">
-        <v>61.01072692871094</v>
+        <v>60.81446838378906</v>
       </c>
       <c r="I60" t="n">
-        <v>134.6280364990234</v>
+        <v>138.3425445556641</v>
       </c>
       <c r="J60" t="n">
-        <v>122.0845794677734</v>
+        <v>122.2075881958008</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>258.1373291015625</v>
+        <v>259.428955078125</v>
       </c>
       <c r="H61" t="n">
-        <v>58.73974609375</v>
+        <v>58.72052383422852</v>
       </c>
       <c r="I61" t="n">
-        <v>213.8898773193359</v>
+        <v>210.3272857666016</v>
       </c>
       <c r="J61" t="n">
-        <v>133.6447601318359</v>
+        <v>133.3348999023438</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>286.1012268066406</v>
+        <v>287.1882629394531</v>
       </c>
       <c r="H62" t="n">
-        <v>48.38087844848633</v>
+        <v>49.31854629516602</v>
       </c>
       <c r="I62" t="n">
-        <v>359.8670349121094</v>
+        <v>361.5416564941406</v>
       </c>
       <c r="J62" t="n">
-        <v>153.9463348388672</v>
+        <v>150.4783020019531</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>317.1295166015625</v>
+        <v>314.036376953125</v>
       </c>
       <c r="H63" t="n">
-        <v>42.32158279418945</v>
+        <v>42.98830413818359</v>
       </c>
       <c r="I63" t="n">
-        <v>563.9036865234375</v>
+        <v>559.7874755859375</v>
       </c>
       <c r="J63" t="n">
-        <v>147.0569458007812</v>
+        <v>140.0895843505859</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>374.5286865234375</v>
+        <v>373.3417053222656</v>
       </c>
       <c r="H64" t="n">
-        <v>51.02187347412109</v>
+        <v>48.68024444580078</v>
       </c>
       <c r="I64" t="n">
-        <v>752.9296875</v>
+        <v>758.4784545898438</v>
       </c>
       <c r="J64" t="n">
-        <v>121.9275207519531</v>
+        <v>120.9862365722656</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>487.2896728515625</v>
+        <v>491.8975524902344</v>
       </c>
       <c r="H65" t="n">
-        <v>76.71886444091797</v>
+        <v>76.77812194824219</v>
       </c>
       <c r="I65" t="n">
-        <v>870.8316650390625</v>
+        <v>875.0075073242188</v>
       </c>
       <c r="J65" t="n">
-        <v>125.2233123779297</v>
+        <v>121.3826904296875</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>237.3493804931641</v>
+        <v>236.1126861572266</v>
       </c>
       <c r="H66" t="n">
-        <v>71.91243743896484</v>
+        <v>69.71459197998047</v>
       </c>
       <c r="I66" t="n">
-        <v>32.50597381591797</v>
+        <v>32.89498901367188</v>
       </c>
       <c r="J66" t="n">
-        <v>103.0937194824219</v>
+        <v>104.5864410400391</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>252.7005004882812</v>
+        <v>252.8928680419922</v>
       </c>
       <c r="H67" t="n">
-        <v>70.91179656982422</v>
+        <v>69.20352172851562</v>
       </c>
       <c r="I67" t="n">
-        <v>82.85250854492188</v>
+        <v>83.21860504150391</v>
       </c>
       <c r="J67" t="n">
-        <v>117.26708984375</v>
+        <v>118.9011764526367</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>290.2265625</v>
+        <v>290.3873901367188</v>
       </c>
       <c r="H68" t="n">
-        <v>65.612060546875</v>
+        <v>63.61351776123047</v>
       </c>
       <c r="I68" t="n">
-        <v>249.7968292236328</v>
+        <v>252.2243499755859</v>
       </c>
       <c r="J68" t="n">
-        <v>162.3955841064453</v>
+        <v>162.5197906494141</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>320.4748840332031</v>
+        <v>321.1598815917969</v>
       </c>
       <c r="H69" t="n">
-        <v>60.63846206665039</v>
+        <v>63.41379547119141</v>
       </c>
       <c r="I69" t="n">
-        <v>399.3954467773438</v>
+        <v>387.3742370605469</v>
       </c>
       <c r="J69" t="n">
-        <v>182.0919799804688</v>
+        <v>174.6484680175781</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>375.1344909667969</v>
+        <v>374.6653442382812</v>
       </c>
       <c r="H70" t="n">
-        <v>59.66575241088867</v>
+        <v>59.14734649658203</v>
       </c>
       <c r="I70" t="n">
-        <v>684.673095703125</v>
+        <v>680.3670654296875</v>
       </c>
       <c r="J70" t="n">
-        <v>143.2388610839844</v>
+        <v>140.1421203613281</v>
       </c>
     </row>
   </sheetData>
